--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1634.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1634.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.07301381574063</v>
+        <v>1.009228348731995</v>
       </c>
       <c r="B1">
-        <v>2.853844922613671</v>
+        <v>3.477327585220337</v>
       </c>
       <c r="C1">
-        <v>3.822566635609502</v>
+        <v>3.929091215133667</v>
       </c>
       <c r="D1">
-        <v>2.390294652678645</v>
+        <v>3.136507749557495</v>
       </c>
       <c r="E1">
-        <v>1.154408343089221</v>
+        <v>1.304911494255066</v>
       </c>
     </row>
   </sheetData>
